--- a/Media/WMG.xlsx
+++ b/Media/WMG.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameel/Library/CloudStorage/Dropbox/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FA06EF-0677-BE4F-BC86-70CFE86E043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046072FF-BBFA-694B-85D6-BAB8BC271BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="1500" windowWidth="27240" windowHeight="16440" xr2:uid="{048A8C7F-CF78-B341-A9AE-8388A4B624AC}"/>
+    <workbookView xWindow="17560" yWindow="1500" windowWidth="27240" windowHeight="16440" xr2:uid="{048A8C7F-CF78-B341-A9AE-8388A4B624AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -487,7 +487,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -581,7 +581,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,7 +1026,7 @@
   <dimension ref="B2:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,11 +1321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26308166-0F1F-2443-9767-511DC4D257AA}">
   <dimension ref="B2:HX35"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2176,7 +2176,7 @@
         <v>2215</v>
       </c>
       <c r="HE3" s="6">
-        <f t="shared" ref="HE3:HY3" si="4">+HD3+1</f>
+        <f t="shared" ref="HE3:HX3" si="4">+HD3+1</f>
         <v>2216</v>
       </c>
       <c r="HF3" s="6">
@@ -2780,7 +2780,7 @@
         <v>1984.9791207815274</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ref="X18:AE19" si="14">+X$17*(W19/W$17)</f>
+        <f t="shared" ref="X19:AE19" si="14">+X$17*(W19/W$17)</f>
         <v>2084.2280768206037</v>
       </c>
       <c r="Y19" s="1">
@@ -4130,7 +4130,7 @@
         <v>37814.236789497641</v>
       </c>
       <c r="HE25" s="1">
-        <f t="shared" ref="HE25:HY25" si="24">+HD25*(1+$AH$28)</f>
+        <f t="shared" ref="HE25:HX25" si="24">+HD25*(1+$AH$28)</f>
         <v>38570.521525287593</v>
       </c>
       <c r="HF25" s="1">
@@ -4221,31 +4221,31 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="8">
-        <f>+G17/C17-1</f>
+        <f t="shared" ref="G28:M28" si="25">+G17/C17-1</f>
         <v>0.17473118279569899</v>
       </c>
       <c r="H28" s="5">
-        <f>+H17/D17-1</f>
+        <f t="shared" si="25"/>
         <v>6.7905646890636273E-2</v>
       </c>
       <c r="I28" s="5">
-        <f>+I17/E17-1</f>
+        <f t="shared" si="25"/>
         <v>-6.3938618925831747E-3</v>
       </c>
       <c r="J28" s="5">
-        <f>+J17/F17-1</f>
+        <f t="shared" si="25"/>
         <v>2.7742749054224358E-2</v>
       </c>
       <c r="K28" s="5">
-        <f>+K17/G17-1</f>
+        <f t="shared" si="25"/>
         <v>-4.6910755148741434E-2</v>
       </c>
       <c r="L28" s="5">
-        <f>+L17/H17-1</f>
+        <f t="shared" si="25"/>
         <v>-6.6934404283801596E-3</v>
       </c>
       <c r="M28" s="5">
-        <f>+M17/I17-1</f>
+        <f t="shared" si="25"/>
         <v>8.687258687258681E-2</v>
       </c>
       <c r="T28" s="5">
@@ -4261,39 +4261,39 @@
         <v>2.952069716775596E-2</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" ref="W28:AE28" si="25">+W17/V17-1</f>
+        <f t="shared" ref="W28:AE28" si="26">+W17/V17-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AA28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AB28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AC28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AD28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AE28" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AG28" s="1" t="s">
@@ -4312,99 +4312,99 @@
         <v>0.48857526881720431</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:N29" si="26">(D17-D18)/D17</f>
+        <f t="shared" ref="D29:N29" si="27">(D17-D18)/D17</f>
         <v>0.48463187991422446</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.45652173913043476</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.46721311475409838</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.49656750572082381</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.4705488621151272</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.46589446589446587</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.47607361963190187</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.46338535414165666</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.46698113207547171</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.45944345766725875</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.45944345766725869</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" ref="S29" si="27">(S17-S18)/S17</f>
+        <f t="shared" ref="S29" si="28">(S17-S18)/S17</f>
         <v>0.47964183139043759</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" ref="T29:AE29" si="28">(T17-T18)/T17</f>
+        <f t="shared" ref="T29:AE29" si="29">(T17-T18)/T17</f>
         <v>0.47374523770084481</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47790227201991908</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.46212693913530217</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.46999999999999992</v>
       </c>
       <c r="AA29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47</v>
       </c>
       <c r="AC29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="AD29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.47</v>
       </c>
       <c r="AE29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.46999999999999992</v>
       </c>
       <c r="AG29" s="1" t="s">
@@ -4545,23 +4545,23 @@
         <v>264</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H35:L35" si="29">+SUM(H33:H34)</f>
+        <f t="shared" ref="H35:L35" si="30">+SUM(H33:H34)</f>
         <v>-57</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>160</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>271</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>296</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>33</v>
       </c>
       <c r="M35" s="1">
@@ -4585,39 +4585,39 @@
         <v>669.9</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" ref="W35:AE35" si="30">+V35*1.05</f>
+        <f t="shared" ref="W35:AE35" si="31">+V35*1.05</f>
         <v>703.39499999999998</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>738.56475</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>775.49298750000003</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>814.26763687500011</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>854.98101871875019</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>897.73006965468778</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>942.61657313742217</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>989.7474017942933</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1039.2347718840081</v>
       </c>
     </row>
